--- a/excel_files/Inventory.xlsx
+++ b/excel_files/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chbuschmann/Documents/python dev/inventory app/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7EA137-51EA-334C-934E-013F047E462C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A10420-BD1E-5847-B782-79E05A444841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="6500" windowWidth="28040" windowHeight="11000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>UltraSharp U2719DC</t>
   </si>
@@ -62,6 +62,21 @@
   </si>
   <si>
     <t>Dell</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Chromebook</t>
+  </si>
+  <si>
+    <t>13"</t>
+  </si>
+  <si>
+    <t>456def</t>
+  </si>
+  <si>
+    <t>2.january 2020</t>
   </si>
 </sst>
 </file>
@@ -414,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,6 +489,29 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
